--- a/Geocoding ALL.xlsx
+++ b/Geocoding ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zt/Desktop/Geocoding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaosiyue/Documents/Columbia MSPH/Spring 2023/P9300 - Capstone/ehs_capstone_nycdoh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5336F82-AE88-544B-A51A-A9FD1B745049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249B091-9702-634A-9607-4485E2A0DE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="720" windowWidth="21580" windowHeight="17280" xr2:uid="{239C503F-5ADE-E64C-9F21-63958588DC29}"/>
+    <workbookView xWindow="7220" yWindow="500" windowWidth="21580" windowHeight="15920" xr2:uid="{239C503F-5ADE-E64C-9F21-63958588DC29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1253">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Adress</t>
   </si>
   <si>
     <t>ZipCode</t>
@@ -2865,15 +2862,9 @@
     <t>11221-3018</t>
   </si>
   <si>
-    <t> 11249-4123</t>
-  </si>
-  <si>
     <t>11216-2709</t>
   </si>
   <si>
-    <t> 11218-1929</t>
-  </si>
-  <si>
     <t>11230-2911</t>
   </si>
   <si>
@@ -2901,9 +2892,6 @@
     <t>11222-1514</t>
   </si>
   <si>
-    <t> 11230-3247</t>
-  </si>
-  <si>
     <t>11216-6239</t>
   </si>
   <si>
@@ -2919,9 +2907,6 @@
     <t>11205-2348</t>
   </si>
   <si>
-    <t> 11249-3201</t>
-  </si>
-  <si>
     <t>11217-1504</t>
   </si>
   <si>
@@ -2931,33 +2916,18 @@
     <t>11222-1502</t>
   </si>
   <si>
-    <t> 11206-4713</t>
-  </si>
-  <si>
-    <t> 11236-2601</t>
-  </si>
-  <si>
     <t>11222-7445</t>
   </si>
   <si>
     <t>11216-4101</t>
   </si>
   <si>
-    <t> 11206-3273</t>
-  </si>
-  <si>
-    <t> 11219-5022</t>
-  </si>
-  <si>
     <t>11222-7566</t>
   </si>
   <si>
     <t>11216-6414</t>
   </si>
   <si>
-    <t> 11206-2907</t>
-  </si>
-  <si>
     <t>11205-3206</t>
   </si>
   <si>
@@ -2988,9 +2958,6 @@
     <t>11206-3445</t>
   </si>
   <si>
-    <t> 11211-4021</t>
-  </si>
-  <si>
     <t>11212-4770</t>
   </si>
   <si>
@@ -3015,15 +2982,6 @@
     <t>11222-7527</t>
   </si>
   <si>
-    <t> 11201-1117</t>
-  </si>
-  <si>
-    <t> 11230-6501</t>
-  </si>
-  <si>
-    <t> 11206-5386</t>
-  </si>
-  <si>
     <t>11201-7059</t>
   </si>
   <si>
@@ -3036,12 +2994,6 @@
     <t>11233-6909</t>
   </si>
   <si>
-    <t> 11249-3471</t>
-  </si>
-  <si>
-    <t> 11233-5351</t>
-  </si>
-  <si>
     <t>11223-1826</t>
   </si>
   <si>
@@ -3051,9 +3003,6 @@
     <t>11223-2371</t>
   </si>
   <si>
-    <t> 11206-3096</t>
-  </si>
-  <si>
     <t>11223-2328</t>
   </si>
   <si>
@@ -3091,9 +3040,6 @@
   </si>
   <si>
     <t>11218-3303</t>
-  </si>
-  <si>
-    <t> 11205-5186</t>
   </si>
   <si>
     <t>225-227 Boerum Street aka 83 Bushwick Place</t>
@@ -3112,9 +3058,6 @@
     <t>11249-4209</t>
   </si>
   <si>
-    <t> 11233-3402</t>
-  </si>
-  <si>
     <t>11206-5036</t>
   </si>
   <si>
@@ -3145,9 +3088,6 @@
     <t>11208-2589</t>
   </si>
   <si>
-    <t> 11211-4010</t>
-  </si>
-  <si>
     <t>11229-4581</t>
   </si>
   <si>
@@ -3157,9 +3097,6 @@
     <t>11215-1818</t>
   </si>
   <si>
-    <t> 11207-2819</t>
-  </si>
-  <si>
     <t>11207-2505</t>
   </si>
   <si>
@@ -3175,30 +3112,15 @@
     <t>11207-2521</t>
   </si>
   <si>
-    <t> 11211-3157</t>
-  </si>
-  <si>
-    <t> 11207</t>
-  </si>
-  <si>
     <t>11201-2933</t>
   </si>
   <si>
     <t>11211-4008</t>
   </si>
   <si>
-    <t> 11215-1819</t>
-  </si>
-  <si>
-    <t> 11211-2103</t>
-  </si>
-  <si>
     <t>11201-1105</t>
   </si>
   <si>
-    <t> 11231-1301</t>
-  </si>
-  <si>
     <t>11224-2613</t>
   </si>
   <si>
@@ -3208,12 +3130,6 @@
     <t>11206-4325</t>
   </si>
   <si>
-    <t> 11206-5580</t>
-  </si>
-  <si>
-    <t> 11211-3814</t>
-  </si>
-  <si>
     <t>11211-4904</t>
   </si>
   <si>
@@ -3223,15 +3139,6 @@
     <t>11211-3158</t>
   </si>
   <si>
-    <t> 11217-1909</t>
-  </si>
-  <si>
-    <t> 11206-4325</t>
-  </si>
-  <si>
-    <t> 11211-3737</t>
-  </si>
-  <si>
     <t>11208-1919</t>
   </si>
   <si>
@@ -3244,9 +3151,6 @@
     <t>11238-4289</t>
   </si>
   <si>
-    <t> 11208-1823</t>
-  </si>
-  <si>
     <t>11211-1334</t>
   </si>
   <si>
@@ -3268,12 +3172,6 @@
     <t>11206-4391</t>
   </si>
   <si>
-    <t> 11212-5491</t>
-  </si>
-  <si>
-    <t> 11211-5944</t>
-  </si>
-  <si>
     <t>11211-1801</t>
   </si>
   <si>
@@ -3298,9 +3196,6 @@
     <t>11222-1038</t>
   </si>
   <si>
-    <t> 11211-1419</t>
-  </si>
-  <si>
     <t>11222-7172</t>
   </si>
   <si>
@@ -3313,9 +3208,6 @@
     <t>11222-7520</t>
   </si>
   <si>
-    <t> 11218-5720</t>
-  </si>
-  <si>
     <t>11215-1012</t>
   </si>
   <si>
@@ -3346,9 +3238,6 @@
     <t>11222-3760</t>
   </si>
   <si>
-    <t> 11206-4919</t>
-  </si>
-  <si>
     <t>11216-2306</t>
   </si>
   <si>
@@ -3370,9 +3259,6 @@
     <t>11222-4847</t>
   </si>
   <si>
-    <t> 11222-6083</t>
-  </si>
-  <si>
     <t>11222-1504</t>
   </si>
   <si>
@@ -3388,9 +3274,6 @@
     <t>11222-4913</t>
   </si>
   <si>
-    <t> 11222-5001</t>
-  </si>
-  <si>
     <t>11220-1815</t>
   </si>
   <si>
@@ -3418,15 +3301,9 @@
     <t>11211-4196</t>
   </si>
   <si>
-    <t> 11225</t>
-  </si>
-  <si>
     <t>11222-4642</t>
   </si>
   <si>
-    <t> 11219-4037</t>
-  </si>
-  <si>
     <t>11238-7059</t>
   </si>
   <si>
@@ -3436,21 +3313,12 @@
     <t>11217-3018</t>
   </si>
   <si>
-    <t> 11222-1126</t>
-  </si>
-  <si>
-    <t> 11211-1830</t>
-  </si>
-  <si>
     <t>11215-1118</t>
   </si>
   <si>
     <t>11211-3503</t>
   </si>
   <si>
-    <t> 11211-4801</t>
-  </si>
-  <si>
     <t>11215-7532</t>
   </si>
   <si>
@@ -3478,27 +3346,15 @@
     <t>11249-3010</t>
   </si>
   <si>
-    <t> 11221-4102</t>
-  </si>
-  <si>
     <t>11201-1964</t>
   </si>
   <si>
-    <t> 11219-4836</t>
-  </si>
-  <si>
-    <t> 11238-3639</t>
-  </si>
-  <si>
     <t>11222-1234</t>
   </si>
   <si>
     <t>11219-5337</t>
   </si>
   <si>
-    <t> 11211-3606</t>
-  </si>
-  <si>
     <t>11211-6993</t>
   </si>
   <si>
@@ -3508,9 +3364,6 @@
     <t>11219-5123</t>
   </si>
   <si>
-    <t> 11232-1001</t>
-  </si>
-  <si>
     <t>11201-1127</t>
   </si>
   <si>
@@ -3571,21 +3424,12 @@
     <t>11206-4469</t>
   </si>
   <si>
-    <t> 11211-3712</t>
-  </si>
-  <si>
     <t>11205-3904</t>
   </si>
   <si>
-    <t> 11201-5922</t>
-  </si>
-  <si>
     <t>11222-3356</t>
   </si>
   <si>
-    <t> 11211-4916</t>
-  </si>
-  <si>
     <t>11206-6410</t>
   </si>
   <si>
@@ -3595,21 +3439,12 @@
     <t>11238-4465</t>
   </si>
   <si>
-    <t> 11222-1008</t>
-  </si>
-  <si>
     <t>11222-1265</t>
   </si>
   <si>
     <t>11222-1005</t>
   </si>
   <si>
-    <t> 11211-3701</t>
-  </si>
-  <si>
-    <t> 11233-1207</t>
-  </si>
-  <si>
     <t>11206-4470</t>
   </si>
   <si>
@@ -3632,9 +3467,6 @@
   </si>
   <si>
     <t>11206-5584</t>
-  </si>
-  <si>
-    <t> 11224-2819</t>
   </si>
   <si>
     <t>11201-8000</t>
@@ -3690,9 +3522,6 @@
     <t>11207-5660</t>
   </si>
   <si>
-    <t> 11249-3936</t>
-  </si>
-  <si>
     <t>11211-3154</t>
   </si>
   <si>
@@ -3706,9 +3535,6 @@
   </si>
   <si>
     <t>11206-5901</t>
-  </si>
-  <si>
-    <t> 11249-4145</t>
   </si>
   <si>
     <t>11206-2913</t>
@@ -3760,34 +3586,21 @@
     <t>11238-2801</t>
   </si>
   <si>
-    <t> 11231-1442</t>
-  </si>
-  <si>
     <t>11249-3001</t>
   </si>
   <si>
     <t>11222-6842</t>
   </si>
   <si>
-    <t> 11238-3206</t>
-  </si>
-  <si>
     <t>11249-1151</t>
   </si>
   <si>
     <t>11222-1314</t>
   </si>
   <si>
-    <t> 11238</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>11231-1418</t>
   </si>
   <si>
-    <t> 11205-5237</t>
-  </si>
-  <si>
     <t>11201-5105</t>
   </si>
   <si>
@@ -3821,28 +3634,186 @@
     <t>11211-2144</t>
   </si>
   <si>
-    <t> 11201-2287</t>
-  </si>
-  <si>
     <t>11222-2689</t>
   </si>
   <si>
-    <t> 11211-1285</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t> 11211-5233</t>
+    <t>11222-1008</t>
+  </si>
+  <si>
+    <t>11211-3701</t>
+  </si>
+  <si>
+    <t>11233-1207</t>
+  </si>
+  <si>
+    <t>11249-4145</t>
+  </si>
+  <si>
+    <t>11224-2819</t>
+  </si>
+  <si>
+    <t>11211-3712</t>
+  </si>
+  <si>
+    <t>11201-5922</t>
+  </si>
+  <si>
+    <t>11232-1001</t>
+  </si>
+  <si>
+    <t>11219-4836</t>
+  </si>
+  <si>
+    <t>11221-4102</t>
+  </si>
+  <si>
+    <t>11205-5237</t>
+  </si>
+  <si>
+    <t>11230-3247</t>
+  </si>
+  <si>
+    <t>11249-3201</t>
+  </si>
+  <si>
+    <t>11206-4713</t>
+  </si>
+  <si>
+    <t>11236-2601</t>
+  </si>
+  <si>
+    <t>11206-3273</t>
+  </si>
+  <si>
+    <t>11219-5022</t>
+  </si>
+  <si>
+    <t>11206-2907</t>
+  </si>
+  <si>
+    <t>11211-4021</t>
+  </si>
+  <si>
+    <t>11201-1117</t>
+  </si>
+  <si>
+    <t>11230-6501</t>
+  </si>
+  <si>
+    <t>11206-5386</t>
+  </si>
+  <si>
+    <t>11249-3471</t>
+  </si>
+  <si>
+    <t>11233-5351</t>
+  </si>
+  <si>
+    <t>11206-3096</t>
+  </si>
+  <si>
+    <t>11205-5186</t>
+  </si>
+  <si>
+    <t>11233-3402</t>
+  </si>
+  <si>
+    <t>11201-2287</t>
+  </si>
+  <si>
+    <t>11211-5233</t>
+  </si>
+  <si>
+    <t>11211-1285</t>
+  </si>
+  <si>
+    <t>11211-4010</t>
+  </si>
+  <si>
+    <t>11207-2819</t>
+  </si>
+  <si>
+    <t>11211-3157</t>
+  </si>
+  <si>
+    <t>11215-1819</t>
+  </si>
+  <si>
+    <t>11211-2103</t>
+  </si>
+  <si>
+    <t>11231-1301</t>
+  </si>
+  <si>
+    <t>11206-5580</t>
+  </si>
+  <si>
+    <t>11211-3814</t>
+  </si>
+  <si>
+    <t>11217-1909</t>
+  </si>
+  <si>
+    <t>11211-3737</t>
+  </si>
+  <si>
+    <t>11208-1823</t>
+  </si>
+  <si>
+    <t>11212-5491</t>
+  </si>
+  <si>
+    <t>11211-5944</t>
+  </si>
+  <si>
+    <t>11211-1419</t>
+  </si>
+  <si>
+    <t>11218-5720</t>
+  </si>
+  <si>
+    <t>11222-6083</t>
+  </si>
+  <si>
+    <t>11222-5001</t>
+  </si>
+  <si>
+    <t>11219-4037</t>
+  </si>
+  <si>
+    <t>11222-1126</t>
+  </si>
+  <si>
+    <t>11211-1830</t>
+  </si>
+  <si>
+    <t>11211-4801</t>
+  </si>
+  <si>
+    <t>11238-3639</t>
+  </si>
+  <si>
+    <t>11211-4916</t>
+  </si>
+  <si>
+    <t>11231-1442</t>
+  </si>
+  <si>
+    <t>11238-3206</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3862,7 +3833,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3870,7 +3841,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0A0A0A"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4230,11 +4201,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AE7D6-8B55-0446-8960-92BAA3112B47}">
   <dimension ref="A1:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -4243,35 +4214,35 @@
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>40.682834999999997</v>
@@ -4280,15 +4251,15 @@
         <v>-73.962288000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>40.694426999999997</v>
@@ -4297,15 +4268,15 @@
         <v>-73.963470000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>1245</v>
+        <v>1184</v>
       </c>
       <c r="D4" s="4">
         <v>40.684348999999997</v>
@@ -4314,15 +4285,15 @@
         <v>-74.003510000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>40.680247999999999</v>
@@ -4331,15 +4302,15 @@
         <v>-73.958855</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>40.728859999999997</v>
@@ -4348,15 +4319,15 @@
         <v>-73.959230000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>40.689171000000002</v>
@@ -4365,15 +4336,15 @@
         <v>-73.922989000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>40.679279999999999</v>
@@ -4382,15 +4353,15 @@
         <v>-73.960120000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="4">
         <v>40.682461000000004</v>
@@ -4399,15 +4370,15 @@
         <v>-73.961174</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="4">
         <v>40.689079</v>
@@ -4416,15 +4387,15 @@
         <v>-73.954764999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="4">
         <v>40.715724999999999</v>
@@ -4433,15 +4404,15 @@
         <v>-73.963050999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="4">
         <v>40.734015999999997</v>
@@ -4450,15 +4421,15 @@
         <v>-73.954650999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="4">
         <v>40.673065000000001</v>
@@ -4467,15 +4438,15 @@
         <v>-73.906929000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="4">
         <v>40.632663999999998</v>
@@ -4484,15 +4455,15 @@
         <v>-73.966599000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="4">
         <v>40.682456999999999</v>
@@ -4501,15 +4472,15 @@
         <v>-73.960517999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="4">
         <v>40.691180000000003</v>
@@ -4518,15 +4489,15 @@
         <v>-73.926199999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="4">
         <v>40.682198</v>
@@ -4535,15 +4506,15 @@
         <v>-73.960151999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>1246</v>
+        <v>1207</v>
       </c>
       <c r="D18" s="4">
         <v>40.689174999999999</v>
@@ -4552,15 +4523,15 @@
         <v>-73.955353000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D19" s="4">
         <v>40.734589999999997</v>
@@ -4569,12 +4540,12 @@
         <v>-73.954859999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="4">
         <v>11249</v>
@@ -4586,15 +4557,15 @@
         <v>-73.965453999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D21" s="4">
         <v>40.678345</v>
@@ -4603,15 +4574,15 @@
         <v>-73.958259999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="4">
         <v>40.734718000000001</v>
@@ -4620,15 +4591,15 @@
         <v>-73.954834000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="4">
         <v>40.638205999999997</v>
@@ -4637,15 +4608,15 @@
         <v>-73.884040999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="4">
         <v>40.688412</v>
@@ -4654,15 +4625,15 @@
         <v>-73.955223000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="4">
         <v>40.681399999999996</v>
@@ -4671,15 +4642,15 @@
         <v>-73.958122000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="4">
         <v>40.684742</v>
@@ -4688,15 +4659,15 @@
         <v>-74.003608999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D27" s="4">
         <v>40.717621000000001</v>
@@ -4705,15 +4676,15 @@
         <v>-73.947310999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D28" s="4">
         <v>40.718159</v>
@@ -4722,15 +4693,15 @@
         <v>-73.960182000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="4">
         <v>40.694088000000001</v>
@@ -4739,15 +4710,15 @@
         <v>-73.930588</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="4">
         <v>40.686912999999997</v>
@@ -4756,15 +4727,15 @@
         <v>-73.954918000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D31" s="4">
         <v>40.701602999999999</v>
@@ -4773,15 +4744,15 @@
         <v>-73.936310000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D32" s="4">
         <v>40.642966999999999</v>
@@ -4790,15 +4761,15 @@
         <v>-73.957526999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="4">
         <v>40.686188000000001</v>
@@ -4807,15 +4778,15 @@
         <v>-73.978722000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D34" s="4">
         <v>40.681640999999999</v>
@@ -4824,15 +4795,15 @@
         <v>-74.004638999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D35" s="4">
         <v>40.680855000000001</v>
@@ -4841,15 +4812,15 @@
         <v>-73.954955999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D36" s="4">
         <v>40.717177999999997</v>
@@ -4858,15 +4829,15 @@
         <v>-73.959845999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="4">
         <v>40.702938000000003</v>
@@ -4875,15 +4846,15 @@
         <v>-73.947777000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="4">
         <v>40.671841000000001</v>
@@ -4892,15 +4863,15 @@
         <v>-73.906554999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="4">
         <v>40.677073999999998</v>
@@ -4909,15 +4880,15 @@
         <v>-73.896324000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D40" s="4">
         <v>40.680484999999997</v>
@@ -4926,15 +4897,15 @@
         <v>-73.953299999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>1247</v>
+        <v>1185</v>
       </c>
       <c r="D41" s="4">
         <v>40.69079</v>
@@ -4943,15 +4914,15 @@
         <v>-73.988489999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D42" s="4">
         <v>40.605910999999999</v>
@@ -4960,15 +4931,15 @@
         <v>-73.987350000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D43" s="4">
         <v>40.704200999999998</v>
@@ -4977,15 +4948,15 @@
         <v>-73.949989000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D44" s="4">
         <v>40.692101000000001</v>
@@ -4994,15 +4965,15 @@
         <v>-73.927154999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>942</v>
+        <v>1149</v>
       </c>
       <c r="D45" s="4">
         <v>40.715378000000001</v>
@@ -5011,15 +4982,15 @@
         <v>-73.962874999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D46" s="4">
         <v>40.678787</v>
@@ -5028,15 +4999,15 @@
         <v>-73.950119000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D47" s="4">
         <v>40.641646999999999</v>
@@ -5045,15 +5016,15 @@
         <v>-73.986885000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D48" s="4">
         <v>40.627495000000003</v>
@@ -5062,15 +5033,15 @@
         <v>-73.965301999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D49" s="4">
         <v>40.710780999999997</v>
@@ -5079,15 +5050,15 @@
         <v>-73.954505999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D50" s="4">
         <v>40.695683000000002</v>
@@ -5096,15 +5067,15 @@
         <v>-73.983963000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>1248</v>
+        <v>1186</v>
       </c>
       <c r="D51" s="4">
         <v>40.682552000000001</v>
@@ -5113,15 +5084,15 @@
         <v>-73.982307000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D52" s="4">
         <v>40.641585999999997</v>
@@ -5130,15 +5101,15 @@
         <v>-73.986801</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D53" s="4">
         <v>40.641517999999998</v>
@@ -5147,15 +5118,15 @@
         <v>-73.986641000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D54" s="4">
         <v>40.697932999999999</v>
@@ -5164,15 +5135,15 @@
         <v>-73.986228999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D55" s="4">
         <v>40.719794999999998</v>
@@ -5181,15 +5152,15 @@
         <v>-73.961867999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>1249</v>
+        <v>1187</v>
       </c>
       <c r="D56" s="4">
         <v>40.678004999999999</v>
@@ -5198,15 +5169,15 @@
         <v>-73.976500999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D57" s="4">
         <v>40.641075000000001</v>
@@ -5215,15 +5186,15 @@
         <v>-73.985068999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D58" s="4">
         <v>40.718311</v>
@@ -5232,15 +5203,15 @@
         <v>-73.958922999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D59" s="4">
         <v>40.730117999999997</v>
@@ -5249,15 +5220,15 @@
         <v>-73.960052000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>954</v>
+        <v>1208</v>
       </c>
       <c r="D60" s="4">
         <v>40.629874999999998</v>
@@ -5266,15 +5237,15 @@
         <v>-73.957511999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C61" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D61" s="4">
         <v>40.680163999999998</v>
@@ -5283,15 +5254,15 @@
         <v>-73.947654999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D62" s="4">
         <v>40.636738000000001</v>
@@ -5300,15 +5271,15 @@
         <v>-73.950705999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D63" s="4">
         <v>40.638129999999997</v>
@@ -5317,15 +5288,15 @@
         <v>-73.953177999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D64" s="4">
         <v>40.719959000000003</v>
@@ -5334,15 +5305,15 @@
         <v>-73.946724000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="4">
         <v>40.718178000000002</v>
@@ -5351,15 +5322,15 @@
         <v>-73.946090999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D66" s="4">
         <v>40.718178000000002</v>
@@ -5368,15 +5339,15 @@
         <v>-73.946090999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D67" s="4">
         <v>40.719841000000002</v>
@@ -5385,15 +5356,15 @@
         <v>-73.956787000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D68" s="4">
         <v>40.693511999999998</v>
@@ -5402,15 +5373,15 @@
         <v>-73.970260999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D69" s="4">
         <v>40.716273999999999</v>
@@ -5419,15 +5390,15 @@
         <v>-73.962128000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>960</v>
+        <v>1209</v>
       </c>
       <c r="D70" s="4">
         <v>40.717716000000003</v>
@@ -5437,15 +5408,15 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D71" s="4">
         <v>40.684902000000001</v>
@@ -5455,15 +5426,15 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D72" s="4">
         <v>40.679828999999998</v>
@@ -5472,15 +5443,15 @@
         <v>-73.943686999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D73" s="4">
         <v>40.731991000000001</v>
@@ -5489,15 +5460,15 @@
         <v>-73.959327999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>964</v>
+        <v>1210</v>
       </c>
       <c r="D74" s="4">
         <v>40.702927000000003</v>
@@ -5506,15 +5477,15 @@
         <v>-73.930969000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D75" s="4">
         <v>40.634929999999997</v>
@@ -5523,15 +5494,15 @@
         <v>-73.949462999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D76" s="4">
         <v>40.635159000000002</v>
@@ -5540,15 +5511,15 @@
         <v>-73.950378000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>965</v>
+        <v>1211</v>
       </c>
       <c r="D77" s="4">
         <v>40.644584999999999</v>
@@ -5557,15 +5528,15 @@
         <v>-73.901366999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D78" s="4">
         <v>40.732117000000002</v>
@@ -5574,15 +5545,15 @@
         <v>-73.959511000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D79" s="4">
         <v>40.671588999999997</v>
@@ -5591,15 +5562,15 @@
         <v>-73.954407000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>968</v>
+        <v>1212</v>
       </c>
       <c r="D80" s="4">
         <v>40.703270000000003</v>
@@ -5608,15 +5579,15 @@
         <v>-73.949584999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C81" s="4" t="s">
-        <v>969</v>
+        <v>1213</v>
       </c>
       <c r="D81" s="4">
         <v>40.625759000000002</v>
@@ -5625,15 +5596,15 @@
         <v>-73.993720999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D82" s="4">
         <v>40.679755999999998</v>
@@ -5642,15 +5613,15 @@
         <v>-73.940207999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="D83" s="4">
         <v>40.679580999999999</v>
@@ -5659,15 +5630,15 @@
         <v>-73.939926</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D84" s="4">
         <v>40.733898000000003</v>
@@ -5676,15 +5647,15 @@
         <v>-73.955466999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>972</v>
+        <v>1214</v>
       </c>
       <c r="D85" s="4">
         <v>40.703327000000002</v>
@@ -5693,15 +5664,15 @@
         <v>-73.949500999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D86" s="4">
         <v>40.692946999999997</v>
@@ -5710,15 +5681,15 @@
         <v>-73.972640999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="D87" s="4">
         <v>40.695656</v>
@@ -5727,15 +5698,15 @@
         <v>-73.983795000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D88" s="4">
         <v>40.679169000000002</v>
@@ -5744,15 +5715,15 @@
         <v>-73.905570999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D89" s="4">
         <v>40.757088000000003</v>
@@ -5761,15 +5732,15 @@
         <v>-73.242194999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="D90" s="4">
         <v>40.625110999999997</v>
@@ -5778,15 +5749,15 @@
         <v>-73.992621999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D91" s="4">
         <v>40.700493000000002</v>
@@ -5795,15 +5766,15 @@
         <v>-73.947120999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D92" s="4">
         <v>40.665329</v>
@@ -5812,15 +5783,15 @@
         <v>-73.994240000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C93" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="D93" s="4">
         <v>40.703780999999999</v>
@@ -5829,15 +5800,15 @@
         <v>-73.919876000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="D94" s="4">
         <v>40.702025999999996</v>
@@ -5846,15 +5817,15 @@
         <v>-73.948830000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D95" s="4">
         <v>40.732734999999998</v>
@@ -5863,15 +5834,15 @@
         <v>-73.959868999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="D96" s="4">
         <v>40.67295</v>
@@ -5880,15 +5851,15 @@
         <v>-73.923379999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="D97" s="4">
         <v>40.679138000000002</v>
@@ -5897,15 +5868,15 @@
         <v>-73.982414000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C98" s="4" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D98" s="4">
         <v>40.703690000000002</v>
@@ -5914,15 +5885,15 @@
         <v>-73.949164999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C99" s="4" t="s">
-        <v>983</v>
+        <v>1215</v>
       </c>
       <c r="D99" s="4">
         <v>40.714790000000001</v>
@@ -5931,15 +5902,15 @@
         <v>-73.960470000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="D100" s="4">
         <v>40.662399000000001</v>
@@ -5948,15 +5919,15 @@
         <v>-73.911300999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="D101" s="4">
         <v>40.703667000000003</v>
@@ -5965,15 +5936,15 @@
         <v>-73.949020000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="D102" s="4">
         <v>40.732914000000001</v>
@@ -5982,15 +5953,15 @@
         <v>-73.959557000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="D103" s="4">
         <v>40.697795999999997</v>
@@ -5999,15 +5970,15 @@
         <v>-73.984367000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C104" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="D104" s="4">
         <v>40.698860000000003</v>
@@ -6016,15 +5987,15 @@
         <v>-73.943770999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="D105" s="4">
         <v>40.720657000000003</v>
@@ -6033,15 +6004,15 @@
         <v>-73.945556999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>1251</v>
+        <v>1189</v>
       </c>
       <c r="D106" s="4">
         <v>40.698340000000002</v>
@@ -6050,15 +6021,15 @@
         <v>-73.984480000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C107" s="4" t="s">
-        <v>1252</v>
+        <v>1190</v>
       </c>
       <c r="D107" s="4">
         <v>40.719386999999998</v>
@@ -6067,15 +6038,15 @@
         <v>-73.954750000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D108" s="4">
         <v>40.605549000000003</v>
@@ -6084,15 +6055,15 @@
         <v>73.985397000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="D109" s="4">
         <v>40.728245000000001</v>
@@ -6101,15 +6072,15 @@
         <v>-73.950507999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C110" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="D110" s="4">
         <v>40.720806000000003</v>
@@ -6118,15 +6089,15 @@
         <v>-73.945426999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C111" s="4" t="s">
-        <v>992</v>
+        <v>1216</v>
       </c>
       <c r="D111" s="4">
         <v>40.702598999999999</v>
@@ -6135,15 +6106,15 @@
         <v>-73.985962000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C112" s="4" t="s">
-        <v>993</v>
+        <v>1217</v>
       </c>
       <c r="D112" s="4">
         <v>40.614361000000002</v>
@@ -6152,15 +6123,15 @@
         <v>-73.962851999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C113" s="4" t="s">
-        <v>1253</v>
+        <v>1191</v>
       </c>
       <c r="D113" s="4">
         <v>40.661520000000003</v>
@@ -6169,15 +6140,15 @@
         <v>-73.995019999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C114" s="4" t="s">
-        <v>994</v>
+        <v>1218</v>
       </c>
       <c r="D114" s="4">
         <v>40.698891000000003</v>
@@ -6186,15 +6157,15 @@
         <v>-73.943084999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C115" s="4" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="D115" s="4">
         <v>40.693226000000003</v>
@@ -6203,15 +6174,15 @@
         <v>-73.980446000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="D116" s="4">
         <v>40.728493</v>
@@ -6220,15 +6191,15 @@
         <v>-73.950667999999993</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C117" s="4" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="D117" s="4">
         <v>40.673290000000001</v>
@@ -6237,15 +6208,15 @@
         <v>-73.896575999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="D118" s="4">
         <v>40.730052999999998</v>
@@ -6254,15 +6225,15 @@
         <v>-73.952881000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C119" s="4" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="D119" s="4">
         <v>40.675870000000003</v>
@@ -6271,15 +6242,15 @@
         <v>-73.907769999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>999</v>
+        <v>1219</v>
       </c>
       <c r="D120" s="4">
         <v>40.717697000000001</v>
@@ -6288,15 +6259,15 @@
         <v>-73.964195000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C121" s="4" t="s">
-        <v>1000</v>
+        <v>1220</v>
       </c>
       <c r="D121" s="4">
         <v>40.677219000000001</v>
@@ -6305,15 +6276,15 @@
         <v>-73.923004000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C122" s="4" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="D122" s="4">
         <v>40.607036999999998</v>
@@ -6322,15 +6293,15 @@
         <v>-73.972351000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C123" s="4" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D123" s="4">
         <v>40.730583000000003</v>
@@ -6339,15 +6310,15 @@
         <v>-73.951858999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C124" s="4" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="D124" s="4">
         <v>40.609848</v>
@@ -6356,15 +6327,15 @@
         <v>-73.962151000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C125" s="4" t="s">
-        <v>1004</v>
+        <v>1221</v>
       </c>
       <c r="D125" s="4">
         <v>40.703834999999998</v>
@@ -6373,15 +6344,15 @@
         <v>-73.949432000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C126" s="4" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="D126" s="4">
         <v>40.608665000000002</v>
@@ -6390,15 +6361,15 @@
         <v>-73.961760999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C127" s="4" t="s">
-        <v>1254</v>
+        <v>1192</v>
       </c>
       <c r="D127" s="4">
         <v>40.678800000000003</v>
@@ -6407,15 +6378,15 @@
         <v>-74.004729999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="D128" s="4">
         <v>40.713470000000001</v>
@@ -6424,15 +6395,15 @@
         <v>-73.954894999999993</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C129" s="4" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="D129" s="4">
         <v>40.677382999999999</v>
@@ -6441,15 +6412,15 @@
         <v>-73.921165000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="D130" s="4">
         <v>40.702979999999997</v>
@@ -6458,15 +6429,15 @@
         <v>-73.985780000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="D131" s="4">
         <v>40.718273000000003</v>
@@ -6475,15 +6446,15 @@
         <v>-73.954436999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="D132" s="4">
         <v>40.714958000000003</v>
@@ -6492,15 +6463,15 @@
         <v>-73.957747999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>1255</v>
+        <v>1193</v>
       </c>
       <c r="D133" s="4">
         <v>40.677334000000002</v>
@@ -6509,15 +6480,15 @@
         <v>-73.970596</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C134" s="4" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="D134" s="4">
         <v>40.717464</v>
@@ -6526,15 +6497,15 @@
         <v>-73.955192999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C135" s="4" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="D135" s="4">
         <v>40.719051</v>
@@ -6543,15 +6514,15 @@
         <v>-73.953299999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D136" s="4">
         <v>40.729979999999998</v>
@@ -6560,15 +6531,15 @@
         <v>-73.950990000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="D137" s="4">
         <v>40.717627999999998</v>
@@ -6577,15 +6548,15 @@
         <v>-73.954871999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C138" s="4" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="D138" s="4">
         <v>40.711272999999998</v>
@@ -6594,15 +6565,15 @@
         <v>-73.941710999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C139" s="4" t="s">
-        <v>1256</v>
+        <v>1194</v>
       </c>
       <c r="D139" s="4">
         <v>40.679237000000001</v>
@@ -6611,15 +6582,15 @@
         <v>-73.984313999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C140" s="4" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="D140" s="4">
         <v>40.612949</v>
@@ -6628,15 +6599,15 @@
         <v>-73.914444000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C141" s="4" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="D141" s="4">
         <v>40.673920000000003</v>
@@ -6645,15 +6616,15 @@
         <v>-73.908103999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C142" s="4" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="D142" s="4">
         <v>40.644821</v>
@@ -6662,15 +6633,15 @@
         <v>-73.971642000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C143" s="4" t="s">
-        <v>1018</v>
+        <v>1222</v>
       </c>
       <c r="D143" s="4">
         <v>40.691467000000003</v>
@@ -6679,15 +6650,15 @@
         <v>-73.954291999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="D144" s="4">
         <v>40.706451000000001</v>
@@ -6696,15 +6667,15 @@
         <v>-73.938727999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C145" s="4" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="D145" s="4">
         <v>43.053158000000003</v>
@@ -6713,12 +6684,12 @@
         <v>-77.632683</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C146" s="4">
         <v>11238</v>
@@ -6730,15 +6701,15 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="C147" s="4" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="D147" s="4">
         <v>40.673591999999999</v>
@@ -6747,15 +6718,15 @@
         <v>-73.886070000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C148" s="4" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="D148" s="4">
         <v>40.716560000000001</v>
@@ -6764,15 +6735,15 @@
         <v>-73.965401</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="C149" s="4" t="s">
-        <v>1257</v>
+        <v>1195</v>
       </c>
       <c r="D149" s="4">
         <v>40.717019999999998</v>
@@ -6781,15 +6752,15 @@
         <v>-73.953249999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="C150" s="4" t="s">
-        <v>1258</v>
+        <v>1224</v>
       </c>
       <c r="D150" s="4">
         <v>40.697960000000002</v>
@@ -6798,15 +6769,15 @@
         <v>-73.983369999999994</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C151" s="4" t="s">
-        <v>1024</v>
+        <v>1223</v>
       </c>
       <c r="D151" s="4">
         <v>40.675776999999997</v>
@@ -6815,15 +6786,15 @@
         <v>-73.905906999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C152" s="4" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="D152" s="4">
         <v>40.700718000000002</v>
@@ -6832,15 +6803,15 @@
         <v>-73.946869000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="D153" s="4">
         <v>40.673439000000002</v>
@@ -6849,15 +6820,15 @@
         <v>-73.88382</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="D154" s="4">
         <v>40.676417999999998</v>
@@ -6866,15 +6837,15 @@
         <v>-73.983452</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D155" s="4">
         <v>40.650852</v>
@@ -6883,15 +6854,15 @@
         <v>-73.955123999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C156" s="4" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="D156" s="4">
         <v>40.716576000000003</v>
@@ -6900,15 +6871,15 @@
         <v>-73.950644999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D157" s="4">
         <v>40.674025999999998</v>
@@ -6917,15 +6888,15 @@
         <v>-73.882362000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C158" s="4" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="D158" s="4">
         <v>40.677776000000001</v>
@@ -6934,15 +6905,15 @@
         <v>-73.903953999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>1259</v>
+        <v>1196</v>
       </c>
       <c r="D159" s="4">
         <v>40.722534000000003</v>
@@ -6951,15 +6922,15 @@
         <v>-73.947670000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C160" s="4" t="s">
-        <v>1260</v>
+        <v>1226</v>
       </c>
       <c r="D160" s="4">
         <v>40.716456999999998</v>
@@ -6968,15 +6939,15 @@
         <v>-73.953666999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C161" s="4" t="s">
-        <v>1261</v>
+        <v>1225</v>
       </c>
       <c r="D161" s="4">
         <v>40.713776000000003</v>
@@ -6985,15 +6956,15 @@
         <v>-73.956885999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="C162" s="4" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="D162" s="4">
         <v>40.67839</v>
@@ -7002,15 +6973,15 @@
         <v>-73.877920000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C163" s="4" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="D163" s="4">
         <v>40.674411999999997</v>
@@ -7019,15 +6990,15 @@
         <v>-73.880302</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C164" s="4" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="D164" s="4">
         <v>40.607799999999997</v>
@@ -7036,15 +7007,15 @@
         <v>-73.920676999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="C165" s="4" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="D165" s="4">
         <v>40.727249</v>
@@ -7053,15 +7024,15 @@
         <v>-73.958663999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="C166" s="4" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="D166" s="4">
         <v>40.699950999999999</v>
@@ -7070,15 +7041,15 @@
         <v>-73.953986999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C167" s="4" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="D167" s="4">
         <v>40.674712999999997</v>
@@ -7087,15 +7058,15 @@
         <v>-73.875809000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D168" s="4">
         <v>40.676780999999998</v>
@@ -7104,15 +7075,15 @@
         <v>-73.897591000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C169" s="4" t="s">
-        <v>1035</v>
+        <v>1227</v>
       </c>
       <c r="D169" s="4">
         <v>40.714889999999997</v>
@@ -7121,15 +7092,15 @@
         <v>-73.960532999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C170" s="4" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="D170" s="4">
         <v>40.597068999999998</v>
@@ -7138,15 +7109,15 @@
         <v>-73.950599999999994</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C171" s="4" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="D171" s="4">
         <v>40.677419999999998</v>
@@ -7155,15 +7126,15 @@
         <v>-73.8964</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="C172" s="4" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="D172" s="4">
         <v>40.675395999999999</v>
@@ -7172,15 +7143,15 @@
         <v>-73.984131000000005</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="C173" s="4" t="s">
-        <v>1039</v>
+        <v>1228</v>
       </c>
       <c r="D173" s="4">
         <v>40.67577</v>
@@ -7189,15 +7160,15 @@
         <v>-73.894561999999993</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C174" s="4" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="D174" s="4">
         <v>40.677653999999997</v>
@@ -7206,15 +7177,15 @@
         <v>-73.894890000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="C175" s="4" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="D175" s="4">
         <v>40.581603999999999</v>
@@ -7223,15 +7194,15 @@
         <v>-73.983825999999993</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="C176" s="4" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="D176" s="4">
         <v>40.677444000000001</v>
@@ -7240,15 +7211,15 @@
         <v>-73.894112000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="C177" s="4" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="D177" s="4">
         <v>40.675198000000002</v>
@@ -7257,15 +7228,15 @@
         <v>-73.984215000000006</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="C178" s="4" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="D178" s="4">
         <v>40.714689999999997</v>
@@ -7274,15 +7245,15 @@
         <v>-73.961240000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C179" s="4" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="D179" s="4">
         <v>40.677753000000003</v>
@@ -7291,15 +7262,15 @@
         <v>-73.892036000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C180" s="4" t="s">
-        <v>1045</v>
+        <v>1229</v>
       </c>
       <c r="D180" s="4">
         <v>40.717739000000002</v>
@@ -7308,12 +7279,12 @@
         <v>-73.953795999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="C181" s="4">
         <v>11211</v>
@@ -7325,15 +7296,15 @@
         <v>-73.953149999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>1046</v>
+      <c r="C182" s="4">
+        <v>11207</v>
       </c>
       <c r="D182" s="4">
         <v>40.671680000000002</v>
@@ -7342,15 +7313,15 @@
         <v>-73.895669999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C183" s="4" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="D183" s="4">
         <v>40.695552999999997</v>
@@ -7359,15 +7330,15 @@
         <v>-73.986649</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C184" s="4" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="D184" s="4">
         <v>40.714733000000003</v>
@@ -7376,15 +7347,15 @@
         <v>-73.957954000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C185" s="4" t="s">
-        <v>1049</v>
+        <v>1230</v>
       </c>
       <c r="D185" s="4">
         <v>40.675759999999997</v>
@@ -7393,15 +7364,15 @@
         <v>-73.984350000000006</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D186" s="4">
         <v>40.717232000000003</v>
@@ -7410,15 +7381,15 @@
         <v>-73.939269999999993</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C187" s="4" t="s">
-        <v>1050</v>
+        <v>1231</v>
       </c>
       <c r="D187" s="4">
         <v>40.71555</v>
@@ -7427,15 +7398,15 @@
         <v>-73.952759999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="D188" s="4">
         <v>40.709152000000003</v>
@@ -7444,15 +7415,15 @@
         <v>-73.950539000000006</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C189" s="4" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="D189" s="4">
         <v>40.704014000000001</v>
@@ -7461,15 +7432,15 @@
         <v>-73.986464999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C190" s="4" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="D190" s="4">
         <v>40.575960000000002</v>
@@ -7478,15 +7449,15 @@
         <v>-73.984530000000007</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="C191" s="4" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="D191" s="4">
         <v>40.714691000000002</v>
@@ -7495,15 +7466,15 @@
         <v>-73.957779000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="C192" s="4" t="s">
-        <v>1052</v>
+        <v>1232</v>
       </c>
       <c r="D192" s="4">
         <v>40.683509999999998</v>
@@ -7512,15 +7483,15 @@
         <v>-74.004570000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C193" s="4" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="D193" s="4">
         <v>40.716236000000002</v>
@@ -7529,15 +7500,15 @@
         <v>-73.964293999999995</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="C194" s="4" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="D194" s="4">
         <v>40.702278</v>
@@ -7546,15 +7517,15 @@
         <v>-73.948173999999995</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="C195" s="4" t="s">
-        <v>1056</v>
+        <v>1233</v>
       </c>
       <c r="D195" s="4">
         <v>40.702407999999998</v>
@@ -7563,15 +7534,15 @@
         <v>-73.947936999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="C196" s="4" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="D196" s="4">
         <v>40.700797999999999</v>
@@ -7580,15 +7551,15 @@
         <v>-73.946738999999994</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C197" s="4" t="s">
-        <v>1057</v>
+        <v>1234</v>
       </c>
       <c r="D197" s="4">
         <v>40.713833000000001</v>
@@ -7597,15 +7568,15 @@
         <v>-73.941933000000006</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="C198" s="4" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="D198" s="4">
         <v>40.712783999999999</v>
@@ -7614,15 +7585,15 @@
         <v>-73.943871000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="C199" s="4" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D199" s="4">
         <v>40.714466000000002</v>
@@ -7631,15 +7602,15 @@
         <v>-73.964928</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C200" s="4" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
       <c r="D200" s="4">
         <v>40.714911999999998</v>
@@ -7648,15 +7619,15 @@
         <v>-73.953209000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="C201" s="4" t="s">
-        <v>1061</v>
+        <v>1235</v>
       </c>
       <c r="D201" s="4">
         <v>40.682983</v>
@@ -7665,15 +7636,15 @@
         <v>-73.980247000000006</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="C202" s="4" t="s">
-        <v>1062</v>
+        <v>1029</v>
       </c>
       <c r="D202" s="4">
         <v>40.702889999999996</v>
@@ -7682,15 +7653,15 @@
         <v>-73.946929999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="D203" s="4">
         <v>40.678058999999998</v>
@@ -7699,15 +7670,15 @@
         <v>-73.883240000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="C204" s="4" t="s">
-        <v>1063</v>
+        <v>1236</v>
       </c>
       <c r="D204" s="4">
         <v>40.713638000000003</v>
@@ -7716,15 +7687,15 @@
         <v>-73.944007999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="C205" s="4" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
       <c r="D205" s="4">
         <v>40.679698999999999</v>
@@ -7733,15 +7704,15 @@
         <v>-73.877617000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="D206" s="4">
         <v>40.677475000000001</v>
@@ -7750,15 +7721,15 @@
         <v>-73.921486000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="C207" s="4" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="D207" s="4">
         <v>40.711815000000001</v>
@@ -7767,15 +7738,15 @@
         <v>-73.964271999999994</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="C208" s="4" t="s">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="D208" s="4">
         <v>40.687935000000003</v>
@@ -7784,15 +7755,15 @@
         <v>-73.984939999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="C209" s="4" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="D209" s="4">
         <v>40.685383000000002</v>
@@ -7801,15 +7772,15 @@
         <v>-73.96199</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="C210" s="4" t="s">
-        <v>1068</v>
+        <v>1237</v>
       </c>
       <c r="D210" s="4">
         <v>40.683188999999999</v>
@@ -7818,15 +7789,15 @@
         <v>-73.867560999999995</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="C211" s="4" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="D211" s="4">
         <v>40.717551999999998</v>
@@ -7835,15 +7806,15 @@
         <v>-73.947661999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="C212" s="4" t="s">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="D212" s="4">
         <v>40.69717</v>
@@ -7852,15 +7823,15 @@
         <v>-73.983849000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="C213" s="4" t="s">
-        <v>1071</v>
+        <v>1039</v>
       </c>
       <c r="D213" s="4">
         <v>40.675846</v>
@@ -7869,15 +7840,15 @@
         <v>-73.881073000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="C214" s="4" t="s">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="D214" s="4">
         <v>40.691467000000003</v>
@@ -7886,15 +7857,15 @@
         <v>-73.988326999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="C215" s="4" t="s">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="D215" s="4">
         <v>40.700240999999998</v>
@@ -7903,15 +7874,15 @@
         <v>-73.934753000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="C216" s="4" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="D216" s="4">
         <v>40.672817000000002</v>
@@ -7920,15 +7891,15 @@
         <v>-73.986946000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="C217" s="4" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="D217" s="4">
         <v>40.701926999999998</v>
@@ -7937,15 +7908,15 @@
         <v>-73.947868</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="C218" s="4" t="s">
-        <v>1076</v>
+        <v>1238</v>
       </c>
       <c r="D218" s="4">
         <v>40.662269999999999</v>
@@ -7954,15 +7925,15 @@
         <v>-73.909700000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C219" s="4" t="s">
-        <v>1077</v>
+        <v>1239</v>
       </c>
       <c r="D219" s="4">
         <v>40.717559999999999</v>
@@ -7971,15 +7942,15 @@
         <v>-73.946877000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="C220" s="4" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
       <c r="D220" s="4">
         <v>40.717658999999998</v>
@@ -7988,15 +7959,15 @@
         <v>-73.946899000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="C221" s="4" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="D221" s="4">
         <v>40.718220000000002</v>
@@ -8005,15 +7976,15 @@
         <v>-73.948256999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="C222" s="4" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="D222" s="4">
         <v>40.702164000000003</v>
@@ -8022,15 +7993,15 @@
         <v>-73.947395</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="C223" s="4" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="D223" s="4">
         <v>40.718746000000003</v>
@@ -8039,15 +8010,15 @@
         <v>-73.947128000000006</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="C224" s="4" t="s">
-        <v>1082</v>
+        <v>1048</v>
       </c>
       <c r="D224" s="4">
         <v>40.712276000000003</v>
@@ -8056,15 +8027,15 @@
         <v>-73.951057000000006</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="C225" s="4" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="D225" s="4">
         <v>40.665019999999998</v>
@@ -8073,15 +8044,15 @@
         <v>-73.900268999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="C226" s="4" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="D226" s="4">
         <v>40.712539999999997</v>
@@ -8090,15 +8061,15 @@
         <v>-73.951133999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="C227" s="4" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="D227" s="4">
         <v>40.736457999999999</v>
@@ -8107,15 +8078,15 @@
         <v>-73.957886000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="C228" s="4" t="s">
-        <v>1086</v>
+        <v>1240</v>
       </c>
       <c r="D228" s="4">
         <v>40.718307000000003</v>
@@ -8124,15 +8095,15 @@
         <v>-73.946586999999994</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="C229" s="4" t="s">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="D229" s="4">
         <v>40.719130999999997</v>
@@ -8141,15 +8112,15 @@
         <v>-73.946640000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="C230" s="4" t="s">
-        <v>1088</v>
+        <v>1053</v>
       </c>
       <c r="D230" s="4">
         <v>40.718989999999998</v>
@@ -8158,15 +8129,15 @@
         <v>-73.946944999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D231" s="4">
         <v>40.701419999999999</v>
@@ -8175,15 +8146,15 @@
         <v>-73.951355000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="C232" s="4" t="s">
-        <v>1089</v>
+        <v>1054</v>
       </c>
       <c r="D232" s="4">
         <v>40.713703000000002</v>
@@ -8192,15 +8163,15 @@
         <v>-73.954841999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="C233" s="4" t="s">
-        <v>1090</v>
+        <v>1055</v>
       </c>
       <c r="D233" s="4">
         <v>40.719043999999997</v>
@@ -8209,15 +8180,15 @@
         <v>-73.947120999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="C234" s="4" t="s">
-        <v>1091</v>
+        <v>1241</v>
       </c>
       <c r="D234" s="4">
         <v>40.631858999999999</v>
@@ -8226,15 +8197,15 @@
         <v>-73.975418000000005</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>528</v>
-      </c>
       <c r="C235" s="4" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="D235" s="4">
         <v>40.677577999999997</v>
@@ -8243,15 +8214,15 @@
         <v>-73.988677999999993</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="C236" s="4" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="D236" s="4">
         <v>40.647235999999999</v>
@@ -8260,15 +8231,15 @@
         <v>-73.970733999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="C237" s="4" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="D237" s="4">
         <v>40.675654999999999</v>
@@ -8277,15 +8248,15 @@
         <v>-74.015251000000006</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="C238" s="4" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="D238" s="4">
         <v>40.711353000000003</v>
@@ -8294,15 +8265,15 @@
         <v>-73.953072000000006</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="C239" s="4" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="D239" s="4">
         <v>40.719383000000001</v>
@@ -8311,15 +8282,15 @@
         <v>-73.946731999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="C240" s="4" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="D240" s="4">
         <v>40.698695999999998</v>
@@ -8328,15 +8299,15 @@
         <v>-73.957183999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="C241" s="4" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="D241" s="4">
         <v>40.713512000000001</v>
@@ -8345,15 +8316,15 @@
         <v>-73.951378000000005</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="C242" s="4" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="D242" s="4">
         <v>40.737183000000002</v>
@@ -8362,15 +8333,15 @@
         <v>-73.954802999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="C243" s="4" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="D243" s="4">
         <v>40.676690000000001</v>
@@ -8379,15 +8350,15 @@
         <v>-73.872110000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="C244" s="4" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="D244" s="4">
         <v>40.732086000000002</v>
@@ -8396,15 +8367,15 @@
         <v>-73.958877999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="C245" s="4" t="s">
-        <v>1102</v>
+        <v>552</v>
       </c>
       <c r="D245" s="4">
         <v>40.701340000000002</v>
@@ -8413,15 +8384,15 @@
         <v>-73.951026999999996</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="C246" s="4" t="s">
-        <v>1103</v>
+        <v>1066</v>
       </c>
       <c r="D246" s="4">
         <v>40.681618</v>
@@ -8430,15 +8401,15 @@
         <v>-73.943268000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D247" s="4">
         <v>40.701408000000001</v>
@@ -8447,15 +8418,15 @@
         <v>-73.950919999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="C248" s="4" t="s">
-        <v>1104</v>
+        <v>1067</v>
       </c>
       <c r="D248" s="4">
         <v>40.720447999999998</v>
@@ -8464,15 +8435,15 @@
         <v>-73.947495000000004</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="C249" s="4" t="s">
-        <v>1105</v>
+        <v>1068</v>
       </c>
       <c r="D249" s="4">
         <v>40.627754000000003</v>
@@ -8481,15 +8452,15 @@
         <v>-73.977385999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="C250" s="4" t="s">
-        <v>1106</v>
+        <v>1069</v>
       </c>
       <c r="D250" s="4">
         <v>40.719839999999998</v>
@@ -8498,15 +8469,15 @@
         <v>-73.945939999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="C251" s="4" t="s">
-        <v>1107</v>
+        <v>1070</v>
       </c>
       <c r="D251" s="4">
         <v>40.668261999999999</v>
@@ -8515,15 +8486,15 @@
         <v>-73.990004999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="C252" s="4" t="s">
-        <v>1108</v>
+        <v>1071</v>
       </c>
       <c r="D252" s="4">
         <v>40.693268000000003</v>
@@ -8532,15 +8503,15 @@
         <v>-73.965378000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D253" s="4">
         <v>40.646940000000001</v>
@@ -8549,15 +8520,15 @@
         <v>-74.011939999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="C254" s="4" t="s">
-        <v>1109</v>
+        <v>1072</v>
       </c>
       <c r="D254" s="4">
         <v>40.720844</v>
@@ -8566,15 +8537,15 @@
         <v>-73.948089999999993</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C255" s="4" t="s">
-        <v>1110</v>
+        <v>1242</v>
       </c>
       <c r="D255" s="4">
         <v>40.722054</v>
@@ -8583,15 +8554,15 @@
         <v>-73.948768999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="C256" s="4" t="s">
-        <v>1111</v>
+        <v>1073</v>
       </c>
       <c r="D256" s="4">
         <v>40.729393000000002</v>
@@ -8600,15 +8571,15 @@
         <v>-73.958977000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="C257" s="4" t="s">
-        <v>1112</v>
+        <v>1074</v>
       </c>
       <c r="D257" s="4">
         <v>40.722037999999998</v>
@@ -8617,15 +8588,15 @@
         <v>-73.949271999999993</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="C258" s="4" t="s">
-        <v>1113</v>
+        <v>1075</v>
       </c>
       <c r="D258" s="4">
         <v>40.693344000000003</v>
@@ -8634,15 +8605,15 @@
         <v>-73.964661000000007</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="C259" s="4" t="s">
-        <v>1114</v>
+        <v>1076</v>
       </c>
       <c r="D259" s="4">
         <v>40.715820000000001</v>
@@ -8651,15 +8622,15 @@
         <v>-73.952079999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="C260" s="4" t="s">
-        <v>1115</v>
+        <v>1077</v>
       </c>
       <c r="D260" s="4">
         <v>40.720469999999999</v>
@@ -8668,15 +8639,15 @@
         <v>-73.946129999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="C261" s="4" t="s">
-        <v>1116</v>
+        <v>1243</v>
       </c>
       <c r="D261" s="4">
         <v>40.720607999999999</v>
@@ -8685,15 +8656,15 @@
         <v>-73.944046</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="C262" s="4" t="s">
-        <v>1117</v>
+        <v>1078</v>
       </c>
       <c r="D262" s="4">
         <v>40.645572999999999</v>
@@ -8702,12 +8673,12 @@
         <v>-74.013214000000005</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="C263" s="4">
         <v>11220</v>
@@ -8719,15 +8690,15 @@
         <v>-74.005584999999996</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="C264" s="4" t="s">
-        <v>1118</v>
+        <v>1079</v>
       </c>
       <c r="D264" s="4">
         <v>40.710743000000001</v>
@@ -8736,15 +8707,15 @@
         <v>-73.950432000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="C265" s="4" t="s">
-        <v>1119</v>
+        <v>1080</v>
       </c>
       <c r="D265" s="4">
         <v>40.703119999999998</v>
@@ -8753,15 +8724,15 @@
         <v>-73.947429999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="C266" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="D266" s="4">
         <v>40.716346999999999</v>
@@ -8770,15 +8741,15 @@
         <v>-73.951674999999994</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="C267" s="4" t="s">
-        <v>1120</v>
+        <v>1081</v>
       </c>
       <c r="D267" s="4">
         <v>40.699570000000001</v>
@@ -8787,15 +8758,15 @@
         <v>-73.953934000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="C268" s="4" t="s">
-        <v>1121</v>
+        <v>1082</v>
       </c>
       <c r="D268" s="4">
         <v>40.679290000000002</v>
@@ -8804,12 +8775,12 @@
         <v>-73.961699999999993</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="C269" s="4">
         <v>11220</v>
@@ -8821,15 +8792,15 @@
         <v>-74.016762</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="C270" s="4" t="s">
-        <v>1122</v>
+        <v>1083</v>
       </c>
       <c r="D270" s="4">
         <v>40.679459000000001</v>
@@ -8838,15 +8809,15 @@
         <v>-73.920119999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="C271" s="4" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
       <c r="D271" s="4">
         <v>40.682648</v>
@@ -8855,15 +8826,15 @@
         <v>-73.965621999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="C272" s="4" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
       <c r="D272" s="4">
         <v>40.699553999999999</v>
@@ -8872,15 +8843,15 @@
         <v>-73.953643999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="C273" s="4" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
       <c r="D273" s="4">
         <v>40.711319000000003</v>
@@ -8889,15 +8860,15 @@
         <v>-73.949889999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="D274" s="4">
         <v>40.716540999999999</v>
@@ -8906,15 +8877,15 @@
         <v>-73.951774999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>1126</v>
+      <c r="C275" s="4">
+        <v>11225</v>
       </c>
       <c r="D275" s="4">
         <v>40.666885000000001</v>
@@ -8923,15 +8894,15 @@
         <v>-73.959975999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="C276" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="D276" s="4">
         <v>40.688949999999998</v>
@@ -8940,15 +8911,15 @@
         <v>-73.981414999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="C277" s="4" t="s">
-        <v>1127</v>
+        <v>1087</v>
       </c>
       <c r="D277" s="4">
         <v>40.721611000000003</v>
@@ -8957,15 +8928,15 @@
         <v>-73.946715999999995</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="C278" s="4" t="s">
-        <v>1128</v>
+        <v>1244</v>
       </c>
       <c r="D278" s="4">
         <v>40.63599</v>
@@ -8974,15 +8945,15 @@
         <v>-74.001716999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="C279" s="4" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
       <c r="D279" s="4">
         <v>40.681778000000001</v>
@@ -8991,15 +8962,15 @@
         <v>-73.965691000000007</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="C280" s="4" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="D280" s="4">
         <v>40.682704999999999</v>
@@ -9008,15 +8979,15 @@
         <v>-74.004538999999994</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="C281" s="4" t="s">
-        <v>1131</v>
+        <v>1090</v>
       </c>
       <c r="D281" s="4">
         <v>40.679543000000002</v>
@@ -9025,15 +8996,15 @@
         <v>-73.985878</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="C282" s="4" t="s">
-        <v>1132</v>
+        <v>1245</v>
       </c>
       <c r="D282" s="4">
         <v>40.737175000000001</v>
@@ -9042,15 +9013,15 @@
         <v>-73.954262</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="C283" s="4" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
       <c r="D283" s="4">
         <v>40.717457000000003</v>
@@ -9059,15 +9030,15 @@
         <v>-73.949409000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="C284" s="4" t="s">
-        <v>1134</v>
+        <v>1091</v>
       </c>
       <c r="D284" s="4">
         <v>40.675815999999998</v>
@@ -9076,15 +9047,15 @@
         <v>-73.983436999999995</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="C285" s="4" t="s">
-        <v>1135</v>
+        <v>1092</v>
       </c>
       <c r="D285" s="4">
         <v>40.710971999999998</v>
@@ -9093,15 +9064,15 @@
         <v>-73.949196000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="C286" s="4" t="s">
-        <v>1136</v>
+        <v>1247</v>
       </c>
       <c r="D286" s="4">
         <v>40.711444999999998</v>
@@ -9110,15 +9081,15 @@
         <v>-73.948577999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="C287" s="4" t="s">
-        <v>1137</v>
+        <v>1093</v>
       </c>
       <c r="D287" s="4">
         <v>40.665599999999998</v>
@@ -9127,15 +9098,15 @@
         <v>-73.992431999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="C288" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="D288" s="4">
         <v>40.664752999999997</v>
@@ -9144,15 +9115,15 @@
         <v>-73.990195999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="C289" s="4" t="s">
-        <v>1138</v>
+        <v>1094</v>
       </c>
       <c r="D289" s="4">
         <v>40.678547000000002</v>
@@ -9161,15 +9132,15 @@
         <v>-73.954941000000005</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="C290" s="4" t="s">
-        <v>1139</v>
+        <v>1095</v>
       </c>
       <c r="D290" s="4">
         <v>40.665908999999999</v>
@@ -9178,15 +9149,15 @@
         <v>-73.992949999999993</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="C291" s="4" t="s">
-        <v>1140</v>
+        <v>1096</v>
       </c>
       <c r="D291" s="4">
         <v>40.693851000000002</v>
@@ -9195,15 +9166,15 @@
         <v>-73.960869000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="C292" s="4" t="s">
-        <v>1141</v>
+        <v>1097</v>
       </c>
       <c r="D292" s="4">
         <v>40.693851000000002</v>
@@ -9212,15 +9183,15 @@
         <v>-73.960693000000006</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="C293" s="4" t="s">
-        <v>1142</v>
+        <v>1098</v>
       </c>
       <c r="D293" s="4">
         <v>40.617122999999999</v>
@@ -9229,15 +9200,15 @@
         <v>-73.978424000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="C294" s="4" t="s">
-        <v>1143</v>
+        <v>1099</v>
       </c>
       <c r="D294" s="4">
         <v>40.713757000000001</v>
@@ -9246,15 +9217,15 @@
         <v>-73.948982000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="C295" s="4" t="s">
-        <v>1144</v>
+        <v>1100</v>
       </c>
       <c r="D295" s="4">
         <v>40.681399999999996</v>
@@ -9263,15 +9234,15 @@
         <v>-73.964698999999996</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="C296" s="4" t="s">
-        <v>1145</v>
+        <v>1101</v>
       </c>
       <c r="D296" s="4">
         <v>40.719433000000002</v>
@@ -9280,15 +9251,15 @@
         <v>-73.961326999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="C297" s="4" t="s">
-        <v>1146</v>
+        <v>1206</v>
       </c>
       <c r="D297" s="4">
         <v>40.688617999999998</v>
@@ -9297,15 +9268,15 @@
         <v>-73.921431999999996</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>660</v>
-      </c>
       <c r="C298" s="4" t="s">
-        <v>1119</v>
+        <v>1080</v>
       </c>
       <c r="D298" s="4">
         <v>40.703119999999998</v>
@@ -9314,15 +9285,15 @@
         <v>-73.947429999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="C299" s="4" t="s">
-        <v>1147</v>
+        <v>1102</v>
       </c>
       <c r="D299" s="4">
         <v>40.702953000000001</v>
@@ -9331,15 +9302,15 @@
         <v>-73.992073000000005</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="C300" s="4" t="s">
-        <v>1148</v>
+        <v>1205</v>
       </c>
       <c r="D300" s="4">
         <v>40.633194000000003</v>
@@ -9348,15 +9319,15 @@
         <v>-74.006148999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="C301" s="4" t="s">
-        <v>1149</v>
+        <v>1248</v>
       </c>
       <c r="D301" s="4">
         <v>40.676830000000002</v>
@@ -9365,15 +9336,15 @@
         <v>-73.955860000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="C302" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="D302" s="4">
         <v>40.664375</v>
@@ -9382,15 +9353,15 @@
         <v>-73.993483999999995</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="C303" s="4" t="s">
-        <v>1150</v>
+        <v>1103</v>
       </c>
       <c r="D303" s="4">
         <v>40.737231999999999</v>
@@ -9399,15 +9370,15 @@
         <v>-73.954041000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="C304" s="4" t="s">
-        <v>1151</v>
+        <v>1104</v>
       </c>
       <c r="D304" s="4">
         <v>40.626415000000001</v>
@@ -9416,15 +9387,15 @@
         <v>-73.997962999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="C305" s="4" t="s">
-        <v>1152</v>
+        <v>1099</v>
       </c>
       <c r="D305" s="4">
         <v>40.713996999999999</v>
@@ -9433,15 +9404,15 @@
         <v>-73.948204000000004</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="C306" s="4" t="s">
-        <v>1153</v>
+        <v>1105</v>
       </c>
       <c r="D306" s="4">
         <v>40.715187</v>
@@ -9450,15 +9421,15 @@
         <v>-73.958259999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="C307" s="4" t="s">
-        <v>1154</v>
+        <v>1106</v>
       </c>
       <c r="D307" s="4">
         <v>40.689556000000003</v>
@@ -9467,15 +9438,15 @@
         <v>-73.980125000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>681</v>
-      </c>
       <c r="C308" s="4" t="s">
-        <v>1155</v>
+        <v>1107</v>
       </c>
       <c r="D308" s="4">
         <v>40.631134000000003</v>
@@ -9484,15 +9455,15 @@
         <v>-74.007973000000007</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>683</v>
-      </c>
       <c r="C309" s="4" t="s">
-        <v>1143</v>
+        <v>1099</v>
       </c>
       <c r="D309" s="4">
         <v>40.714016000000001</v>
@@ -9501,15 +9472,15 @@
         <v>-73.947936999999996</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="C310" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="D310" s="4">
         <v>40.692886000000001</v>
@@ -9518,15 +9489,15 @@
         <v>-73.948577999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>688</v>
-      </c>
       <c r="C311" s="4" t="s">
-        <v>1156</v>
+        <v>1204</v>
       </c>
       <c r="D311" s="4">
         <v>40.663936999999997</v>
@@ -9535,15 +9506,15 @@
         <v>-73.994101999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="C312" s="4" t="s">
-        <v>1157</v>
+        <v>1108</v>
       </c>
       <c r="D312" s="4">
         <v>40.702559999999998</v>
@@ -9552,15 +9523,15 @@
         <v>-73.984566000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="C313" s="4" t="s">
-        <v>1158</v>
+        <v>1109</v>
       </c>
       <c r="D313" s="4">
         <v>40.635139000000002</v>
@@ -9569,15 +9540,15 @@
         <v>-73.949562</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="C314" s="4" t="s">
-        <v>1159</v>
+        <v>1110</v>
       </c>
       <c r="D314" s="4">
         <v>40.720325000000003</v>
@@ -9586,15 +9557,15 @@
         <v>-73.960930000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>696</v>
-      </c>
       <c r="C315" s="4" t="s">
-        <v>1160</v>
+        <v>1111</v>
       </c>
       <c r="D315" s="4">
         <v>40.714035000000003</v>
@@ -9603,15 +9574,15 @@
         <v>-73.947288999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>698</v>
-      </c>
       <c r="C316" s="4" t="s">
-        <v>1161</v>
+        <v>1112</v>
       </c>
       <c r="D316" s="4">
         <v>40.687603000000003</v>
@@ -9620,15 +9591,15 @@
         <v>-73.939507000000006</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="C317" s="4" t="s">
-        <v>1162</v>
+        <v>1113</v>
       </c>
       <c r="D317" s="4">
         <v>40.714737</v>
@@ -9637,15 +9608,15 @@
         <v>-73.959220999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="C318" s="4" t="s">
-        <v>1163</v>
+        <v>1114</v>
       </c>
       <c r="D318" s="4">
         <v>40.712558999999999</v>
@@ -9654,15 +9625,15 @@
         <v>-73.952208999999996</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>704</v>
-      </c>
       <c r="C319" s="4" t="s">
-        <v>1164</v>
+        <v>1115</v>
       </c>
       <c r="D319" s="4">
         <v>40.720371</v>
@@ -9671,15 +9642,15 @@
         <v>-73.960769999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="C320" s="4" t="s">
-        <v>1165</v>
+        <v>1116</v>
       </c>
       <c r="D320" s="4">
         <v>40.700355999999999</v>
@@ -9688,15 +9659,15 @@
         <v>-73.946854000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="C321" s="4" t="s">
-        <v>1166</v>
+        <v>1117</v>
       </c>
       <c r="D321" s="4">
         <v>40.689231999999997</v>
@@ -9705,15 +9676,15 @@
         <v>-73.942024000000004</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="C322" s="4" t="s">
-        <v>1167</v>
+        <v>1118</v>
       </c>
       <c r="D322" s="4">
         <v>40.694611000000002</v>
@@ -9722,15 +9693,15 @@
         <v>-73.956879000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="C323" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="D323" s="4">
         <v>40.696483999999998</v>
@@ -9739,15 +9710,15 @@
         <v>-73.983559</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>715</v>
-      </c>
       <c r="C324" s="4" t="s">
-        <v>1168</v>
+        <v>1119</v>
       </c>
       <c r="D324" s="4">
         <v>40.681910999999999</v>
@@ -9756,15 +9727,15 @@
         <v>-73.973350999999994</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>717</v>
-      </c>
       <c r="C325" s="4" t="s">
-        <v>1169</v>
+        <v>1120</v>
       </c>
       <c r="D325" s="4">
         <v>40.694262999999999</v>
@@ -9773,12 +9744,12 @@
         <v>-73.956680000000006</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C326" s="4">
         <v>11216</v>
@@ -9790,15 +9761,15 @@
         <v>-73.949420000000003</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>721</v>
-      </c>
       <c r="C327" s="4" t="s">
-        <v>1170</v>
+        <v>1121</v>
       </c>
       <c r="D327" s="4">
         <v>40.700595999999997</v>
@@ -9807,15 +9778,15 @@
         <v>-73.945296999999997</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="C328" s="4" t="s">
-        <v>1171</v>
+        <v>1122</v>
       </c>
       <c r="D328" s="4">
         <v>40.713206999999997</v>
@@ -9824,15 +9795,15 @@
         <v>-73.955253999999996</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="C329" s="4" t="s">
-        <v>1172</v>
+        <v>1123</v>
       </c>
       <c r="D329" s="4">
         <v>40.700394000000003</v>
@@ -9841,15 +9812,15 @@
         <v>-73.94632</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>727</v>
-      </c>
       <c r="C330" s="4" t="s">
-        <v>1173</v>
+        <v>1124</v>
       </c>
       <c r="D330" s="4">
         <v>40.674396999999999</v>
@@ -9858,15 +9829,15 @@
         <v>-73.956328999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="C331" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="D331" s="4">
         <v>40.719887</v>
@@ -9875,15 +9846,15 @@
         <v>-73.960823000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>732</v>
-      </c>
       <c r="C332" s="4" t="s">
-        <v>1174</v>
+        <v>1125</v>
       </c>
       <c r="D332" s="4">
         <v>40.711357</v>
@@ -9892,15 +9863,15 @@
         <v>-73.944327999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="C333" s="4" t="s">
-        <v>1175</v>
+        <v>1126</v>
       </c>
       <c r="D333" s="4">
         <v>40.737251000000001</v>
@@ -9909,15 +9880,15 @@
         <v>-73.953445000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="C334" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>737</v>
       </c>
       <c r="D334" s="4">
         <v>40.714053999999997</v>
@@ -9926,15 +9897,15 @@
         <v>-73.964989000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>739</v>
-      </c>
       <c r="C335" s="4" t="s">
-        <v>1176</v>
+        <v>1127</v>
       </c>
       <c r="D335" s="4">
         <v>40.702446000000002</v>
@@ -9943,15 +9914,15 @@
         <v>-73.946892000000005</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="C336" s="4" t="s">
-        <v>1177</v>
+        <v>1202</v>
       </c>
       <c r="D336" s="4">
         <v>40.714325000000002</v>
@@ -9960,15 +9931,15 @@
         <v>-73.945244000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="C337" s="4" t="s">
-        <v>1178</v>
+        <v>1128</v>
       </c>
       <c r="D337" s="4">
         <v>40.694996000000003</v>
@@ -9977,15 +9948,15 @@
         <v>-73.954093999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>745</v>
-      </c>
       <c r="C338" s="4" t="s">
-        <v>1179</v>
+        <v>1203</v>
       </c>
       <c r="D338" s="4">
         <v>40.689422999999998</v>
@@ -9994,15 +9965,15 @@
         <v>-74.000007999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>747</v>
-      </c>
       <c r="C339" s="4" t="s">
-        <v>1180</v>
+        <v>1129</v>
       </c>
       <c r="D339" s="4">
         <v>40.724983000000002</v>
@@ -10011,15 +9982,15 @@
         <v>-73.948677000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>749</v>
-      </c>
       <c r="C340" s="4" t="s">
-        <v>1181</v>
+        <v>1249</v>
       </c>
       <c r="D340" s="4">
         <v>40.711452000000001</v>
@@ -10028,15 +9999,15 @@
         <v>-73.943329000000006</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="C341" s="4" t="s">
-        <v>1182</v>
+        <v>1130</v>
       </c>
       <c r="D341" s="4">
         <v>40.694360000000003</v>
@@ -10045,15 +10016,15 @@
         <v>-73.950680000000006</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>753</v>
-      </c>
       <c r="C342" s="4" t="s">
-        <v>1163</v>
+        <v>1114</v>
       </c>
       <c r="D342" s="4">
         <v>40.712463</v>
@@ -10062,15 +10033,15 @@
         <v>-73.951958000000005</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>755</v>
-      </c>
       <c r="C343" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D343" s="4">
         <v>40.714084999999997</v>
@@ -10079,15 +10050,15 @@
         <v>-73.964873999999995</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="C344" s="4" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="D344" s="4">
         <v>40.735869999999998</v>
@@ -10096,15 +10067,15 @@
         <v>-73.95617</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="C345" s="4" t="s">
-        <v>1183</v>
+        <v>1131</v>
       </c>
       <c r="D345" s="4">
         <v>40.722233000000003</v>
@@ -10113,15 +10084,15 @@
         <v>-73.948311000000004</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>761</v>
-      </c>
       <c r="C346" s="4" t="s">
-        <v>1159</v>
+        <v>1110</v>
       </c>
       <c r="D346" s="4">
         <v>40.720146</v>
@@ -10130,15 +10101,15 @@
         <v>-73.960419000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>763</v>
-      </c>
       <c r="C347" s="4" t="s">
-        <v>1184</v>
+        <v>1132</v>
       </c>
       <c r="D347" s="4">
         <v>40.678500999999997</v>
@@ -10147,15 +10118,15 @@
         <v>-73.962851999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="C348" s="4" t="s">
-        <v>1186</v>
+        <v>1133</v>
       </c>
       <c r="D348" s="4">
         <v>40.736794000000003</v>
@@ -10164,15 +10135,15 @@
         <v>-73.954780999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="C349" s="4" t="s">
-        <v>1187</v>
+        <v>1134</v>
       </c>
       <c r="D349" s="4">
         <v>40.737988000000001</v>
@@ -10181,15 +10152,15 @@
         <v>-73.957076999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>769</v>
-      </c>
       <c r="C350" s="4" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D350" s="4">
         <v>40.714775000000003</v>
@@ -10198,15 +10169,15 @@
         <v>-73.943100000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>771</v>
-      </c>
       <c r="C351" s="4" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="D351" s="4">
         <v>40.684600000000003</v>
@@ -10215,12 +10186,12 @@
         <v>-73.924729999999997</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="C352" s="4">
         <v>11208</v>
@@ -10232,15 +10203,15 @@
         <v>-73.881362999999993</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="C353" s="4" t="s">
-        <v>1190</v>
+        <v>1135</v>
       </c>
       <c r="D353" s="4">
         <v>40.702274000000003</v>
@@ -10249,15 +10220,15 @@
         <v>-73.946738999999994</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="C354" s="4" t="s">
-        <v>1191</v>
+        <v>1136</v>
       </c>
       <c r="D354" s="4">
         <v>40.736809000000001</v>
@@ -10266,15 +10237,15 @@
         <v>-73.954696999999996</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="C355" s="4" t="s">
-        <v>1192</v>
+        <v>1137</v>
       </c>
       <c r="D355" s="4">
         <v>40.726433</v>
@@ -10283,15 +10254,15 @@
         <v>-73.958297999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="C356" s="4" t="s">
-        <v>1193</v>
+        <v>1138</v>
       </c>
       <c r="D356" s="4">
         <v>40.697432999999997</v>
@@ -10300,15 +10271,15 @@
         <v>-73.956940000000003</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>783</v>
-      </c>
       <c r="C357" s="4" t="s">
-        <v>1194</v>
+        <v>1139</v>
       </c>
       <c r="D357" s="4">
         <v>40.681640999999999</v>
@@ -10317,12 +10288,12 @@
         <v>-73.979797000000005</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="C358" s="4">
         <v>11201</v>
@@ -10334,15 +10305,15 @@
         <v>-73.990570000000005</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>787</v>
-      </c>
       <c r="C359" s="4" t="s">
-        <v>1195</v>
+        <v>1140</v>
       </c>
       <c r="D359" s="4">
         <v>40.653267</v>
@@ -10351,15 +10322,15 @@
         <v>-73.959564</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="C360" s="4" t="s">
-        <v>1196</v>
+        <v>1141</v>
       </c>
       <c r="D360" s="4">
         <v>40.696506999999997</v>
@@ -10368,15 +10339,15 @@
         <v>-73.956367</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="C361" s="4" t="s">
-        <v>1197</v>
+        <v>1142</v>
       </c>
       <c r="D361" s="4">
         <v>40.695030000000003</v>
@@ -10385,15 +10356,15 @@
         <v>-73.950134000000006</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="C362" s="4" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D362" s="4">
         <v>40.575553999999997</v>
@@ -10402,15 +10373,15 @@
         <v>-73.977333000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="C363" s="4" t="s">
-        <v>1163</v>
+        <v>1114</v>
       </c>
       <c r="D363" s="4">
         <v>40.71228</v>
@@ -10419,15 +10390,15 @@
         <v>-73.951842999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="C364" s="4" t="s">
-        <v>1199</v>
+        <v>1143</v>
       </c>
       <c r="D364" s="4">
         <v>40.693207000000001</v>
@@ -10436,15 +10407,15 @@
         <v>-73.981323000000003</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="C365" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="D365" s="4">
         <v>40.725203999999998</v>
@@ -10453,15 +10424,15 @@
         <v>-73.948882999999995</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="C366" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="D366" s="4">
         <v>40.672759999999997</v>
@@ -10470,15 +10441,15 @@
         <v>-73.903649999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="C367" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="D367" s="4">
         <v>40.696460999999999</v>
@@ -10487,15 +10458,15 @@
         <v>-73.956695999999994</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="C368" s="4" t="s">
-        <v>1200</v>
+        <v>1144</v>
       </c>
       <c r="D368" s="4">
         <v>40.690331</v>
@@ -10504,15 +10475,15 @@
         <v>-73.926276999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="C369" s="4" t="s">
-        <v>1201</v>
+        <v>1145</v>
       </c>
       <c r="D369" s="4">
         <v>40.704268999999996</v>
@@ -10521,15 +10492,15 @@
         <v>-73.985114999999993</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="C370" s="4" t="s">
-        <v>1202</v>
+        <v>1146</v>
       </c>
       <c r="D370" s="4">
         <v>40.702179000000001</v>
@@ -10538,15 +10509,15 @@
         <v>-73.946608999999995</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="C371" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="D371" s="4">
         <v>40.675381000000002</v>
@@ -10555,15 +10526,15 @@
         <v>-73.879638999999997</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B372" s="2" t="s">
-        <v>817</v>
-      </c>
       <c r="C372" s="4" t="s">
-        <v>1203</v>
+        <v>1147</v>
       </c>
       <c r="D372" s="4">
         <v>40.695785999999998</v>
@@ -10572,15 +10543,15 @@
         <v>-73.956085000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>819</v>
-      </c>
       <c r="C373" s="4" t="s">
-        <v>1204</v>
+        <v>1148</v>
       </c>
       <c r="D373" s="4">
         <v>40.695723999999998</v>
@@ -10589,15 +10560,15 @@
         <v>-73.956055000000006</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>821</v>
-      </c>
       <c r="C374" s="4" t="s">
-        <v>1209</v>
+        <v>1153</v>
       </c>
       <c r="D374" s="4">
         <v>40.727043000000002</v>
@@ -10606,15 +10577,15 @@
         <v>-73.938332000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>823</v>
-      </c>
       <c r="C375" s="4" t="s">
-        <v>1205</v>
+        <v>1149</v>
       </c>
       <c r="D375" s="4">
         <v>40.715763000000003</v>
@@ -10623,15 +10594,15 @@
         <v>-73.964027000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>825</v>
-      </c>
       <c r="C376" s="4" t="s">
-        <v>1207</v>
+        <v>1151</v>
       </c>
       <c r="D376" s="4">
         <v>40.683422</v>
@@ -10640,15 +10611,15 @@
         <v>-73.967628000000005</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>827</v>
-      </c>
       <c r="C377" s="4" t="s">
-        <v>1208</v>
+        <v>1152</v>
       </c>
       <c r="D377" s="4">
         <v>40.681415999999999</v>
@@ -10657,15 +10628,15 @@
         <v>-73.967072000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="C378" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="D378" s="4">
         <v>40.701430999999999</v>
@@ -10675,15 +10646,15 @@
       </c>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>832</v>
-      </c>
       <c r="C379" s="4" t="s">
-        <v>1210</v>
+        <v>1154</v>
       </c>
       <c r="D379" s="4">
         <v>40.690643000000001</v>
@@ -10693,15 +10664,15 @@
       </c>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="C380" s="4" t="s">
-        <v>1211</v>
+        <v>1155</v>
       </c>
       <c r="D380" s="4">
         <v>40.690711999999998</v>
@@ -10711,15 +10682,15 @@
       </c>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="C381" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>837</v>
       </c>
       <c r="D381" s="4">
         <v>40.693221999999999</v>
@@ -10729,15 +10700,15 @@
       </c>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="C382" s="4" t="s">
-        <v>1212</v>
+        <v>1156</v>
       </c>
       <c r="D382" s="4">
         <v>40.70252</v>
@@ -10746,15 +10717,15 @@
         <v>-73.948639999999997</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1206</v>
+        <v>1150</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1213</v>
+        <v>1157</v>
       </c>
       <c r="D383" s="4">
         <v>40.695456999999998</v>
@@ -10763,15 +10734,15 @@
         <v>-73.933243000000004</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B384" s="2" t="s">
-        <v>842</v>
-      </c>
       <c r="C384" s="4" t="s">
-        <v>1214</v>
+        <v>1158</v>
       </c>
       <c r="D384" s="4">
         <v>40.656016999999999</v>
@@ -10780,15 +10751,15 @@
         <v>-74.002196999999995</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>844</v>
-      </c>
       <c r="C385" s="4" t="s">
-        <v>1215</v>
+        <v>1159</v>
       </c>
       <c r="D385" s="4">
         <v>40.666035000000001</v>
@@ -10797,15 +10768,15 @@
         <v>-73.884452999999993</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="C386" s="4" t="s">
-        <v>1216</v>
+        <v>32</v>
       </c>
       <c r="D386" s="4">
         <v>40.716053000000002</v>
@@ -10814,15 +10785,15 @@
         <v>-73.963463000000004</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="C387" s="4" t="s">
-        <v>1217</v>
+        <v>1160</v>
       </c>
       <c r="D387" s="4">
         <v>40.716816000000001</v>
@@ -10831,15 +10802,15 @@
         <v>-73.948479000000006</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B388" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="C388" s="4" t="s">
-        <v>1218</v>
+        <v>1161</v>
       </c>
       <c r="D388" s="4">
         <v>40.690807</v>
@@ -10848,15 +10819,15 @@
         <v>-73.925612999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B389" s="2" t="s">
-        <v>852</v>
-      </c>
       <c r="C389" s="4" t="s">
-        <v>1219</v>
+        <v>1162</v>
       </c>
       <c r="D389" s="4">
         <v>40.658115000000002</v>
@@ -10865,15 +10836,15 @@
         <v>-73.888892999999996</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B390" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="C390" s="4" t="s">
-        <v>1220</v>
+        <v>1163</v>
       </c>
       <c r="D390" s="4">
         <v>40.683121</v>
@@ -10882,15 +10853,15 @@
         <v>-73.966155999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>856</v>
-      </c>
       <c r="C391" s="4" t="s">
-        <v>1221</v>
+        <v>1164</v>
       </c>
       <c r="D391" s="4">
         <v>40.697868</v>
@@ -10899,15 +10870,15 @@
         <v>-73.937393</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>858</v>
-      </c>
       <c r="C392" s="4" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="D392" s="4">
         <v>40.715733</v>
@@ -10916,15 +10887,15 @@
         <v>-73.963798999999995</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>860</v>
-      </c>
       <c r="C393" s="4" t="s">
-        <v>1223</v>
+        <v>1165</v>
       </c>
       <c r="D393" s="4">
         <v>40.702744000000003</v>
@@ -10933,15 +10904,15 @@
         <v>-73.950478000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="C394" s="4" t="s">
-        <v>1224</v>
+        <v>1166</v>
       </c>
       <c r="D394" s="4">
         <v>40.699289999999998</v>
@@ -10950,15 +10921,15 @@
         <v>-73.93383</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B395" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="C395" s="4" t="s">
-        <v>1225</v>
+        <v>1167</v>
       </c>
       <c r="D395" s="4">
         <v>40.695900000000002</v>
@@ -10967,15 +10938,15 @@
         <v>-73.946762000000007</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>866</v>
-      </c>
       <c r="C396" s="4" t="s">
-        <v>1226</v>
+        <v>1168</v>
       </c>
       <c r="D396" s="4">
         <v>40.640934000000001</v>
@@ -10984,15 +10955,15 @@
         <v>-73.905197000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="C397" s="4" t="s">
-        <v>1233</v>
+        <v>1175</v>
       </c>
       <c r="D397" s="4">
         <v>40.701923000000001</v>
@@ -11001,15 +10972,15 @@
         <v>-73.935501000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1227</v>
+        <v>1169</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1230</v>
+        <v>1172</v>
       </c>
       <c r="D398" s="4">
         <v>40.680832000000002</v>
@@ -11018,15 +10989,15 @@
         <v>-73.962569999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>871</v>
-      </c>
       <c r="C399" s="4" t="s">
-        <v>1232</v>
+        <v>1174</v>
       </c>
       <c r="D399" s="4">
         <v>40.697338000000002</v>
@@ -11035,15 +11006,15 @@
         <v>-73.936760000000007</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>873</v>
-      </c>
       <c r="C400" s="4" t="s">
-        <v>1229</v>
+        <v>1171</v>
       </c>
       <c r="D400" s="4">
         <v>40.695712999999998</v>
@@ -11052,15 +11023,15 @@
         <v>-73.944412</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1228</v>
+        <v>1170</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1230</v>
+        <v>1172</v>
       </c>
       <c r="D401" s="4">
         <v>40.680756000000002</v>
@@ -11069,15 +11040,15 @@
         <v>-73.962295999999995</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>876</v>
-      </c>
       <c r="C402" s="4" t="s">
-        <v>1230</v>
+        <v>1172</v>
       </c>
       <c r="D402" s="4">
         <v>40.680855000000001</v>
@@ -11086,15 +11057,15 @@
         <v>-73.961822999999995</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1231</v>
+        <v>1173</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1234</v>
+        <v>1176</v>
       </c>
       <c r="D403" s="4">
         <v>40.668407000000002</v>
@@ -11103,15 +11074,15 @@
         <v>-73.959541000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>879</v>
-      </c>
       <c r="C404" s="4" t="s">
-        <v>1235</v>
+        <v>1177</v>
       </c>
       <c r="D404" s="4">
         <v>40.676979000000003</v>
@@ -11120,15 +11091,15 @@
         <v>-73.956017000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>881</v>
-      </c>
       <c r="C405" s="4" t="s">
-        <v>1236</v>
+        <v>1178</v>
       </c>
       <c r="D405" s="4">
         <v>40.695861999999998</v>
@@ -11137,15 +11108,15 @@
         <v>-73.944007999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>883</v>
-      </c>
       <c r="C406" s="4" t="s">
-        <v>1216</v>
+        <v>32</v>
       </c>
       <c r="D406" s="4">
         <v>40.715839000000003</v>
@@ -11154,15 +11125,15 @@
         <v>-73.963341</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>885</v>
-      </c>
       <c r="C407" s="4" t="s">
-        <v>1237</v>
+        <v>1179</v>
       </c>
       <c r="D407" s="4">
         <v>40.680618000000003</v>
@@ -11171,15 +11142,15 @@
         <v>-73.960541000000006</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="C408" s="4" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="D408" s="4">
         <v>40.685760000000002</v>
@@ -11188,15 +11159,15 @@
         <v>-74.003304</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>889</v>
-      </c>
       <c r="C409" s="4" t="s">
-        <v>1239</v>
+        <v>1180</v>
       </c>
       <c r="D409" s="4">
         <v>40.718631999999999</v>
@@ -11205,15 +11176,15 @@
         <v>-73.959991000000002</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="C410" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="D410" s="4">
         <v>40.732498</v>
@@ -11222,15 +11193,15 @@
         <v>-73.954787999999994</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="C411" s="4" t="s">
-        <v>1240</v>
+        <v>1181</v>
       </c>
       <c r="D411" s="4">
         <v>40.732554999999998</v>
@@ -11239,15 +11210,15 @@
         <v>-73.955039999999997</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>896</v>
-      </c>
       <c r="C412" s="4" t="s">
-        <v>1241</v>
+        <v>1251</v>
       </c>
       <c r="D412" s="4">
         <v>40.679851999999997</v>
@@ -11256,15 +11227,15 @@
         <v>-73.961319000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="C413" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="D413" s="4">
         <v>40.683208</v>
@@ -11273,15 +11244,15 @@
         <v>-73.982451999999995</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>901</v>
-      </c>
       <c r="C414" s="4" t="s">
-        <v>1242</v>
+        <v>1182</v>
       </c>
       <c r="D414" s="4">
         <v>40.717323</v>
@@ -11290,15 +11261,15 @@
         <v>-73.960898999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>903</v>
-      </c>
       <c r="C415" s="4" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="D415" s="4">
         <v>40.733176999999998</v>
@@ -11307,15 +11278,15 @@
         <v>-73.954430000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>1244</v>
+      <c r="C416" s="4">
+        <v>11238</v>
       </c>
       <c r="D416" s="4">
         <v>40.679920000000003</v>
@@ -11324,12 +11295,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="C417" s="4">
         <v>11238</v>
@@ -11341,12 +11312,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="C418" s="4">
         <v>11238</v>
@@ -11358,12 +11329,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="C419" s="4">
         <v>11238</v>
@@ -11375,12 +11346,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="C420" s="4">
         <v>11238</v>
@@ -11392,12 +11363,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="C421" s="4">
         <v>11238</v>
@@ -11409,12 +11380,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="C422" s="4">
         <v>11238</v>
@@ -11426,12 +11397,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="C423" s="4">
         <v>11238</v>
@@ -11443,12 +11414,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="C424" s="4">
         <v>11238</v>
@@ -11460,15 +11431,15 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="C425" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="D425" s="4">
         <v>40.736117999999998</v>
@@ -11477,15 +11448,15 @@
         <v>-73.959746999999993</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="C426" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D426" s="4">
         <v>40.736117999999998</v>
@@ -11494,15 +11465,15 @@
         <v>-73.959746999999993</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>928</v>
-      </c>
       <c r="C427" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D427" s="4">
         <v>40.736117999999998</v>
@@ -11511,15 +11482,15 @@
         <v>-73.959746999999993</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>930</v>
-      </c>
       <c r="C428" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D428" s="4">
         <v>40.736117999999998</v>
@@ -11528,15 +11499,15 @@
         <v>-73.959746999999993</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>932</v>
-      </c>
       <c r="C429" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D429" s="4">
         <v>40.736117999999998</v>
@@ -11545,12 +11516,12 @@
         <v>-73.959746999999993</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="C430" s="4">
         <v>11238</v>
@@ -11562,12 +11533,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="C431" s="4">
         <v>11238</v>
@@ -11579,12 +11550,12 @@
         <v>-73.963430000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="C432" s="4">
         <v>11234</v>
@@ -11596,20 +11567,20 @@
         <v>-73.919568999999996</v>
       </c>
     </row>
-    <row r="433" spans="3:5">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="3:5">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="3:5">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="3:5">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
     </row>

--- a/Geocoding ALL.xlsx
+++ b/Geocoding ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaosiyue/Documents/Columbia MSPH/Spring 2023/P9300 - Capstone/ehs_capstone_nycdoh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249B091-9702-634A-9607-4485E2A0DE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1557E-95BD-2E41-8257-05683F51DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="500" windowWidth="21580" windowHeight="15920" xr2:uid="{239C503F-5ADE-E64C-9F21-63958588DC29}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{239C503F-5ADE-E64C-9F21-63958588DC29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4201,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AE7D6-8B55-0446-8960-92BAA3112B47}">
   <dimension ref="A1:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6052,7 +6052,7 @@
         <v>40.605549000000003</v>
       </c>
       <c r="E108" s="4">
-        <v>73.985397000000006</v>
+        <v>-73.985397000000006</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
